--- a/chamber_PS_param.xlsx
+++ b/chamber_PS_param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Projects\pythonProject6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D95107-674E-470D-A253-268985354061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB40903-9B55-4503-98B4-466E848BC94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,65 +414,89 @@
         <v>1.29</v>
       </c>
       <c r="F2">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>1765</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G3">
-        <v>1863</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F4">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="G4">
-        <v>1953</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F5">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="G5">
-        <v>1993</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F6">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G6">
-        <v>2029</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F7">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G7">
-        <v>2086</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F8">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="G8">
-        <v>2117</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1100</v>
+      </c>
+      <c r="G10">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1200</v>
+      </c>
+      <c r="G11">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12">
         <v>1300</v>
       </c>
-      <c r="G9">
+      <c r="G12">
         <v>2126</v>
       </c>
     </row>
